--- a/exemplo2.xlsx
+++ b/exemplo2.xlsx
@@ -8,6 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="IndValuation" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="IndEndividamento" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="IndiEficiência" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="IndiRentabilidade" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="IndiCrescimento" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -52,6 +57,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEE1111"/>
+          <bgColor rgb="FFEE1111"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -413,7 +430,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,58 +459,324 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Nome</t>
+          <t>D.Y</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Idade</t>
-        </is>
-      </c>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEG Ratio</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EV/EBITDA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EV/EBIT</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>VPA</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>P/Ativo</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>LPA</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>P/SR</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>P/Ativo Circ. Liq.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/PL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBIT</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PL/Ativos</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Passivos/Ativos</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Liq. corrente</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>M. Bruta</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>M. EBITDA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>M. EBIT</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>M. Líquida</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>João</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>25</v>
+          <t>teste1</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>silvio</t>
+          <t>teste1</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>silvio</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>teste1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>52</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>teste1</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>tewste</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>teste1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>teste1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>teste1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>teste1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>teste1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E10">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>E1=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="0">
+      <formula>E1=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>E1=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" dxfId="0">
+      <formula>E1=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>E1=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="0">
+      <formula>E1=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="7" dxfId="0">
+      <formula>E1=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8" dxfId="0">
+      <formula>E1=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>E1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CAGR Receitas 5 anos</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CAGR Lucros 5 anos</t>
         </is>
       </c>
     </row>

--- a/exemplo2.xlsx
+++ b/exemplo2.xlsx
@@ -51,24 +51,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEE1111"/>
-          <bgColor rgb="FFEE1111"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -658,98 +647,51 @@
       <c r="E1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>teste1</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>teste1</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>teste1</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>teste1</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>teste1</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>teste1</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>teste1</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>teste1</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>teste1</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E10">
-    <cfRule type="expression" priority="1" dxfId="0">
-      <formula>E1=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>E1=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="3" dxfId="0">
-      <formula>E1=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>E1=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="5" dxfId="0">
-      <formula>E1=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="0">
-      <formula>E1=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="7" dxfId="0">
-      <formula>E1=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>E1=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="9" dxfId="0">
-      <formula>E1=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/exemplo2.xlsx
+++ b/exemplo2.xlsx
@@ -51,9 +51,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -615,7 +614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,48 +646,25 @@
       <c r="E1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>0.11</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>50.50%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>37.76%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-43.21%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/exemplo2.xlsx
+++ b/exemplo2.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,65 +447,70 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>D.Y</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>P/L</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t xml:space="preserve"> PEG Ratio</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>P/VP</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>EV/EBITDA</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>EV/EBIT</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>P/EBITDA</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>P/EBIT</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>VPA</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>P/Ativo</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>LPA</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>P/SR</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>P/Ativo Circ. Liq.</t>
         </is>
@@ -517,6 +522,108 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/PL</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Dív. líquida/EBIT</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PL/Ativos</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Passivos/Ativos</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Liq. corrente</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ATIVO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>M. Bruta</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>M. EBITDA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>M. EBIT</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>M. Líquida</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -533,47 +640,43 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Dív. líquida/PL</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBITDA</t>
+          <t>ROE</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Dív. líquida/EBIT</t>
+          <t>ROA</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>PL/Ativos</t>
+          <t>ROIC</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Passivos/Ativos</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Liq. corrente</t>
-        </is>
-      </c>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,115 +687,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>M. Bruta</t>
+          <t>ATIVO</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>M. EBITDA</t>
+          <t>CAGR Receitas 5 anos</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
-        <is>
-          <t>M. EBIT</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>M. Líquida</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ROE</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ROA</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ROIC</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Giro ativos</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>50.50%</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>37.76%</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-43.21%</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CAGR Receitas 5 anos</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
         <is>
           <t>CAGR Lucros 5 anos</t>
         </is>

--- a/exemplo2.xlsx
+++ b/exemplo2.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,83 @@
       <c r="N1" t="inlineStr">
         <is>
           <t>P/Ativo Circ. Liq.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ATOM3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>95.62</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-2.79</t>
         </is>
       </c>
     </row>
@@ -527,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +646,43 @@
       <c r="G1" t="inlineStr">
         <is>
           <t>Liq. corrente</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ATOM3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-7.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.35</t>
         </is>
       </c>
     </row>
@@ -583,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +729,33 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>M. Líquida</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ATOM3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>93.46%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.10%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.27%</t>
         </is>
       </c>
     </row>
@@ -629,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,6 +805,33 @@
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ATOM3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>50.50%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>37.76%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-43.21%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -676,7 +844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,6 +869,23 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ATOM3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>31.18%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22.10%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
